--- a/Y2-Sem1/キャリアデザイン/2023-06-20/（第11・12週）自己分析シート(自己分析・過去分析).xlsx
+++ b/Y2-Sem1/キャリアデザイン/2023-06-20/（第11・12週）自己分析シート(自己分析・過去分析).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cyrusman/Desktop/ECCコンピューター専門学校/Year-2/Y2-Sem1/キャリアデザイン/2023-06-20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2859FF8B-FCAF-9F45-A251-08BA7789FD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D6F3925-CB93-9F44-9221-674CDE07221F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'02過去分析'!$A$1:$E$8</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -385,7 +386,7 @@
   </si>
   <si>
     <t>クラス　　SK2A　　名前　文家俊</t>
-    <rPh sb="16" eb="18">
+    <rPh sb="0" eb="17">
       <t>ナマエ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1272,41 +1273,41 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1328,18 +1329,6 @@
     <cellStyle name="60% - アクセント 4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="60% - アクセント 5 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="60% - アクセント 6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="アクセント 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="アクセント 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="アクセント 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="アクセント 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="アクセント 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="アクセント 6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="タイトル 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="チェック セル 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="どちらでもない 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="ハイパーリンク 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="メモ 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="リンク セル 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="入力 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="出力 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
@@ -1355,6 +1344,18 @@
     <cellStyle name="標準 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
     <cellStyle name="標準 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
     <cellStyle name="警告文 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="アクセント 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="アクセント 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="アクセント 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="アクセント 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="アクセント 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="アクセント 6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="タイトル 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="チェック セル 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="どちらでもない 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="ハイパーリンク 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="メモ 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="リンク セル 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1695,10 +1696,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="85" customHeight="1" thickTop="1">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1717,7 +1718,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="85" customHeight="1" thickTop="1">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="7"/>
@@ -1737,10 +1738,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="85" customHeight="1" thickTop="1">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="23" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1751,10 +1752,10 @@
       <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:2" ht="85" customHeight="1">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="27"/>
+      <c r="B13" s="30"/>
     </row>
     <row r="14" spans="1:2" s="12" customFormat="1" ht="25" customHeight="1">
       <c r="A14" s="6" t="s">
@@ -1763,10 +1764,10 @@
       <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2" ht="85" customHeight="1">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="27"/>
+      <c r="B15" s="30"/>
     </row>
     <row r="16" spans="1:2" s="12" customFormat="1" ht="25" customHeight="1">
       <c r="A16" s="6" t="s">
@@ -1775,10 +1776,10 @@
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2" ht="48.75" customHeight="1">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="27"/>
+      <c r="B17" s="30"/>
     </row>
     <row r="18" spans="1:2" s="12" customFormat="1" ht="25" customHeight="1">
       <c r="A18" s="6" t="s">
@@ -1787,10 +1788,10 @@
       <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2" ht="48.75" customHeight="1">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="27"/>
+      <c r="B19" s="30"/>
     </row>
     <row r="20" spans="1:2" s="12" customFormat="1" ht="25" customHeight="1">
       <c r="A20" s="6" t="s">
@@ -1799,10 +1800,10 @@
       <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2" ht="78" customHeight="1">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="28"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1"/>
@@ -1849,13 +1850,13 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5" ht="35" thickBot="1">
       <c r="A3" s="20"/>
@@ -1876,16 +1877,16 @@
       <c r="A4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="24" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1893,16 +1894,16 @@
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="25" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1957,7 +1958,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="213" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -2047,15 +2048,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005D613A5EAFE00F468F9EFC7DA0099D63" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="0b760e266439ab167040dcc2c0736f84">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="818372c2-5ca1-41d4-8e9c-cfddae3549a4" xmlns:ns3="17b0db3f-bb77-44b7-9a15-7825ddede5b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f105041562af0d128b58ba3f56905a79" ns2:_="" ns3:_="">
     <xsd:import namespace="818372c2-5ca1-41d4-8e9c-cfddae3549a4"/>
@@ -2278,15 +2270,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7EC5DB6-CAEA-41B3-9925-599D4E8F999E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54CB1032-DC8D-4596-9661-797E5A175DA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2303,4 +2296,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7EC5DB6-CAEA-41B3-9925-599D4E8F999E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>